--- a/gd/数值规划/团队平衡及博弈模型设计.xlsx
+++ b/gd/数值规划/团队平衡及博弈模型设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/数值规划/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13005" activeTab="4"/>
+    <workbookView xWindow="42320" yWindow="7560" windowWidth="28040" windowHeight="13000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="设计思路及框架设计" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,12 @@
     <sheet name="设计规范" sheetId="5" r:id="rId4"/>
     <sheet name="玩点对应分布" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1666,19 +1676,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1764,26 +1774,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1791,33 +1801,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1858,24 +1868,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1887,9 +1879,6 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1921,8 +1910,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1930,12 +1940,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1946,13 +1956,29 @@
       <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1987,33 +2013,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2021,8 +2058,19 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2032,6 +2080,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="82E1EE"/>
@@ -2040,6 +2089,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -2076,36 +2126,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20370370370370369</c:v>
+                  <c:v>0.203703703703704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20370370370370369</c:v>
+                  <c:v>0.203703703703704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20370370370370369</c:v>
+                  <c:v>0.203703703703704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15555555555555556</c:v>
+                  <c:v>0.155555555555556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11666666666666667</c:v>
+                  <c:v>0.116666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2177,7 +2238,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2219,7 +2280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2251,9 +2312,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2285,6 +2347,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2460,118 +2523,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2582,7 +2645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2590,7 +2653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2598,7 +2661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,7 +2672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2617,12 +2680,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
@@ -2633,7 +2696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2641,17 +2704,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
@@ -2659,7 +2722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2667,82 +2730,82 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F41" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
@@ -2755,236 +2818,236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O164"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="K153" sqref="K153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E19" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F20" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F21" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E27" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F28" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F29" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
-      <c r="E42" s="15" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E42" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15" t="s">
+      <c r="F42" s="26"/>
+      <c r="G42" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="11" t="s">
+      <c r="H42" s="26"/>
+      <c r="I42" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E43" s="5" t="s">
         <v>120</v>
       </c>
@@ -2997,10 +3060,10 @@
       <c r="H43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E44" s="4">
         <v>0</v>
       </c>
@@ -3013,12 +3076,12 @@
       <c r="H44" s="4">
         <v>0</v>
       </c>
-      <c r="I44" s="10">
-        <v>1</v>
-      </c>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="I44" s="25">
+        <v>1</v>
+      </c>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E45" s="4">
         <v>0</v>
       </c>
@@ -3031,12 +3094,12 @@
       <c r="H45" s="4">
         <v>1</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="J45" s="25"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E46" s="4">
         <v>0</v>
       </c>
@@ -3049,12 +3112,12 @@
       <c r="H46" s="4">
         <v>0</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E47" s="4">
         <v>0</v>
       </c>
@@ -3067,12 +3130,12 @@
       <c r="H47" s="4">
         <v>1</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E48" s="4">
         <v>0</v>
       </c>
@@ -3085,12 +3148,12 @@
       <c r="H48" s="4">
         <v>0</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="4:10">
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E49" s="4">
         <v>0</v>
       </c>
@@ -3103,12 +3166,12 @@
       <c r="H49" s="4">
         <v>1</v>
       </c>
-      <c r="I49" s="10">
-        <v>1</v>
-      </c>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="4:10">
+      <c r="I49" s="25">
+        <v>1</v>
+      </c>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E50" s="4">
         <v>0</v>
       </c>
@@ -3121,12 +3184,12 @@
       <c r="H50" s="4">
         <v>0</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="4:10">
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E51" s="4">
         <v>0</v>
       </c>
@@ -3139,12 +3202,12 @@
       <c r="H51" s="4">
         <v>1</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="4:10">
+      <c r="J51" s="25"/>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -3157,12 +3220,12 @@
       <c r="H52" s="4">
         <v>0</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="4:10">
+      <c r="J52" s="25"/>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E53" s="4">
         <v>1</v>
       </c>
@@ -3175,12 +3238,12 @@
       <c r="H53" s="4">
         <v>1</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="4:10">
+      <c r="J53" s="25"/>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E54" s="4">
         <v>1</v>
       </c>
@@ -3193,12 +3256,12 @@
       <c r="H54" s="4">
         <v>0</v>
       </c>
-      <c r="I54" s="10">
-        <v>1</v>
-      </c>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="4:10">
+      <c r="I54" s="25">
+        <v>1</v>
+      </c>
+      <c r="J54" s="25"/>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E55" s="4">
         <v>1</v>
       </c>
@@ -3211,12 +3274,12 @@
       <c r="H55" s="4">
         <v>1</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="4:10">
+      <c r="J55" s="25"/>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E56" s="4">
         <v>1</v>
       </c>
@@ -3229,12 +3292,12 @@
       <c r="H56" s="4">
         <v>0</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="4:10">
+      <c r="J56" s="25"/>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E57" s="4">
         <v>1</v>
       </c>
@@ -3247,12 +3310,12 @@
       <c r="H57" s="4">
         <v>1</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="4:10">
+      <c r="J57" s="25"/>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E58" s="4">
         <v>1</v>
       </c>
@@ -3265,12 +3328,12 @@
       <c r="H58" s="4">
         <v>0</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" spans="4:10">
+      <c r="J58" s="25"/>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E59" s="4">
         <v>1</v>
       </c>
@@ -3283,12 +3346,12 @@
       <c r="H59" s="4">
         <v>1</v>
       </c>
-      <c r="I59" s="10">
-        <v>1</v>
-      </c>
-      <c r="J59" s="10"/>
-    </row>
-    <row r="60" spans="4:10">
+      <c r="I59" s="25">
+        <v>1</v>
+      </c>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="2" t="s">
         <v>154</v>
       </c>
@@ -3299,35 +3362,35 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="4:10">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
         <v>137</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="4:10">
+    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="4:10">
-      <c r="E63" s="15" t="s">
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E63" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15" t="s">
+      <c r="F63" s="26"/>
+      <c r="G63" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="11" t="s">
+      <c r="H63" s="26"/>
+      <c r="I63" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J63" s="12"/>
-    </row>
-    <row r="64" spans="4:10">
+      <c r="J63" s="28"/>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E64" s="5" t="s">
         <v>120</v>
       </c>
@@ -3340,10 +3403,10 @@
       <c r="H64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
-    </row>
-    <row r="65" spans="5:10">
+      <c r="I64" s="29"/>
+      <c r="J64" s="30"/>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E65" s="4">
         <v>0</v>
       </c>
@@ -3356,12 +3419,12 @@
       <c r="H65" s="4">
         <v>0</v>
       </c>
-      <c r="I65" s="10">
-        <v>1</v>
-      </c>
-      <c r="J65" s="10"/>
-    </row>
-    <row r="66" spans="5:10">
+      <c r="I65" s="25">
+        <v>1</v>
+      </c>
+      <c r="J65" s="25"/>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E66" s="4">
         <v>0</v>
       </c>
@@ -3374,12 +3437,12 @@
       <c r="H66" s="4">
         <v>1</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="J66" s="10"/>
-    </row>
-    <row r="67" spans="5:10">
+      <c r="J66" s="25"/>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E67" s="4">
         <v>0</v>
       </c>
@@ -3392,12 +3455,12 @@
       <c r="H67" s="4">
         <v>0</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J67" s="10"/>
-    </row>
-    <row r="68" spans="5:10">
+      <c r="J67" s="25"/>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E68" s="4">
         <v>0</v>
       </c>
@@ -3410,12 +3473,12 @@
       <c r="H68" s="4">
         <v>1</v>
       </c>
-      <c r="I68" s="10">
-        <v>1</v>
-      </c>
-      <c r="J68" s="10"/>
-    </row>
-    <row r="69" spans="5:10">
+      <c r="I68" s="25">
+        <v>1</v>
+      </c>
+      <c r="J68" s="25"/>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E69" s="4">
         <v>0</v>
       </c>
@@ -3428,12 +3491,12 @@
       <c r="H69" s="4">
         <v>0</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="J69" s="10"/>
-    </row>
-    <row r="70" spans="5:10">
+      <c r="J69" s="25"/>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E70" s="4">
         <v>0</v>
       </c>
@@ -3446,12 +3509,12 @@
       <c r="H70" s="4">
         <v>1</v>
       </c>
-      <c r="I70" s="10">
-        <v>1</v>
-      </c>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="5:10">
+      <c r="I70" s="25">
+        <v>1</v>
+      </c>
+      <c r="J70" s="25"/>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E71" s="4">
         <v>0</v>
       </c>
@@ -3464,12 +3527,12 @@
       <c r="H71" s="4">
         <v>0</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="5:10">
+      <c r="J71" s="25"/>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E72" s="4">
         <v>0</v>
       </c>
@@ -3482,12 +3545,12 @@
       <c r="H72" s="4">
         <v>1</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" spans="5:10">
+      <c r="J72" s="25"/>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E73" s="4">
         <v>1</v>
       </c>
@@ -3500,12 +3563,12 @@
       <c r="H73" s="4">
         <v>0</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" spans="5:10">
+      <c r="J73" s="25"/>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E74" s="4">
         <v>1</v>
       </c>
@@ -3518,12 +3581,12 @@
       <c r="H74" s="4">
         <v>1</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="J74" s="10"/>
-    </row>
-    <row r="75" spans="5:10">
+      <c r="J74" s="25"/>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E75" s="4">
         <v>1</v>
       </c>
@@ -3536,12 +3599,12 @@
       <c r="H75" s="4">
         <v>0</v>
       </c>
-      <c r="I75" s="10">
-        <v>1</v>
-      </c>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" spans="5:10">
+      <c r="I75" s="25">
+        <v>1</v>
+      </c>
+      <c r="J75" s="25"/>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E76" s="4">
         <v>1</v>
       </c>
@@ -3554,12 +3617,12 @@
       <c r="H76" s="4">
         <v>1</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" spans="5:10">
+      <c r="J76" s="25"/>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E77" s="4">
         <v>1</v>
       </c>
@@ -3572,12 +3635,12 @@
       <c r="H77" s="4">
         <v>0</v>
       </c>
-      <c r="I77" s="10">
-        <v>1</v>
-      </c>
-      <c r="J77" s="10"/>
-    </row>
-    <row r="78" spans="5:10">
+      <c r="I77" s="25">
+        <v>1</v>
+      </c>
+      <c r="J77" s="25"/>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E78" s="4">
         <v>1</v>
       </c>
@@ -3590,12 +3653,12 @@
       <c r="H78" s="4">
         <v>1</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I78" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="79" spans="5:10">
+      <c r="J78" s="25"/>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E79" s="4">
         <v>1</v>
       </c>
@@ -3608,12 +3671,12 @@
       <c r="H79" s="4">
         <v>0</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J79" s="10"/>
-    </row>
-    <row r="80" spans="5:10">
+      <c r="J79" s="25"/>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E80" s="4">
         <v>1</v>
       </c>
@@ -3626,86 +3689,86 @@
       <c r="H80" s="4">
         <v>1</v>
       </c>
-      <c r="I80" s="10">
-        <v>1</v>
-      </c>
-      <c r="J80" s="10"/>
-    </row>
-    <row r="81" spans="4:10">
+      <c r="I80" s="25">
+        <v>1</v>
+      </c>
+      <c r="J80" s="25"/>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E81" s="1" t="s">
         <v>149</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="4:10">
+    <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="4:10">
+    <row r="83" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E83" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="4:10">
+    <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E84" s="1" t="s">
         <v>160</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="4:10">
+    <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="4:10">
+    <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D86" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="4:10">
+    <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E87" s="1" t="s">
         <v>135</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="4:10">
+    <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E88" s="1" t="s">
         <v>136</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="4:10">
+    <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E89" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="4:10">
-      <c r="E90" s="15" t="s">
+    <row r="90" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E90" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15" t="s">
+      <c r="F90" s="26"/>
+      <c r="G90" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="11" t="s">
+      <c r="H90" s="26"/>
+      <c r="I90" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J90" s="12"/>
-    </row>
-    <row r="91" spans="4:10">
+      <c r="J90" s="28"/>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E91" s="5" t="s">
         <v>120</v>
       </c>
@@ -3718,10 +3781,10 @@
       <c r="H91" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="4:10">
+      <c r="I91" s="29"/>
+      <c r="J91" s="30"/>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E92" s="4">
         <v>0</v>
       </c>
@@ -3734,12 +3797,12 @@
       <c r="H92" s="4">
         <v>0</v>
       </c>
-      <c r="I92" s="10">
-        <v>1</v>
-      </c>
-      <c r="J92" s="10"/>
-    </row>
-    <row r="93" spans="4:10">
+      <c r="I92" s="25">
+        <v>1</v>
+      </c>
+      <c r="J92" s="25"/>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E93" s="4">
         <v>0</v>
       </c>
@@ -3752,12 +3815,12 @@
       <c r="H93" s="4">
         <v>1</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="J93" s="10"/>
-    </row>
-    <row r="94" spans="4:10">
+      <c r="J93" s="25"/>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E94" s="4">
         <v>0</v>
       </c>
@@ -3770,12 +3833,12 @@
       <c r="H94" s="4">
         <v>0</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J94" s="10"/>
-    </row>
-    <row r="95" spans="4:10">
+      <c r="J94" s="25"/>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E95" s="4">
         <v>0</v>
       </c>
@@ -3788,12 +3851,12 @@
       <c r="H95" s="4">
         <v>1</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" spans="4:10">
+      <c r="J95" s="25"/>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E96" s="4">
         <v>0</v>
       </c>
@@ -3806,12 +3869,12 @@
       <c r="H96" s="4">
         <v>0</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J96" s="10"/>
-    </row>
-    <row r="97" spans="5:10">
+      <c r="J96" s="25"/>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E97" s="4">
         <v>0</v>
       </c>
@@ -3824,12 +3887,12 @@
       <c r="H97" s="4">
         <v>1</v>
       </c>
-      <c r="I97" s="10">
-        <v>1</v>
-      </c>
-      <c r="J97" s="10"/>
-    </row>
-    <row r="98" spans="5:10">
+      <c r="I97" s="25">
+        <v>1</v>
+      </c>
+      <c r="J97" s="25"/>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E98" s="4">
         <v>0</v>
       </c>
@@ -3842,12 +3905,12 @@
       <c r="H98" s="4">
         <v>0</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="J98" s="10"/>
-    </row>
-    <row r="99" spans="5:10">
+      <c r="J98" s="25"/>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E99" s="4">
         <v>0</v>
       </c>
@@ -3860,12 +3923,12 @@
       <c r="H99" s="4">
         <v>1</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="J99" s="10"/>
-    </row>
-    <row r="100" spans="5:10">
+      <c r="J99" s="25"/>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E100" s="4">
         <v>1</v>
       </c>
@@ -3878,12 +3941,12 @@
       <c r="H100" s="4">
         <v>0</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" spans="5:10">
+      <c r="J100" s="25"/>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E101" s="4">
         <v>1</v>
       </c>
@@ -3896,12 +3959,12 @@
       <c r="H101" s="4">
         <v>1</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" spans="5:10">
+      <c r="J101" s="25"/>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E102" s="4">
         <v>1</v>
       </c>
@@ -3914,12 +3977,12 @@
       <c r="H102" s="4">
         <v>0</v>
       </c>
-      <c r="I102" s="10">
-        <v>1</v>
-      </c>
-      <c r="J102" s="10"/>
-    </row>
-    <row r="103" spans="5:10">
+      <c r="I102" s="25">
+        <v>1</v>
+      </c>
+      <c r="J102" s="25"/>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E103" s="4">
         <v>1</v>
       </c>
@@ -3937,7 +4000,7 @@
       </c>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="5:10">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E104" s="4">
         <v>1</v>
       </c>
@@ -3950,12 +4013,12 @@
       <c r="H104" s="4">
         <v>0</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="J104" s="10"/>
-    </row>
-    <row r="105" spans="5:10">
+      <c r="J104" s="25"/>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E105" s="4">
         <v>1</v>
       </c>
@@ -3968,12 +4031,12 @@
       <c r="H105" s="4">
         <v>1</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I105" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="J105" s="10"/>
-    </row>
-    <row r="106" spans="5:10">
+      <c r="J105" s="25"/>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E106" s="4">
         <v>1</v>
       </c>
@@ -3991,7 +4054,7 @@
       </c>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="5:10">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E107" s="4">
         <v>1</v>
       </c>
@@ -4004,125 +4067,125 @@
       <c r="H107" s="4">
         <v>1</v>
       </c>
-      <c r="I107" s="10">
-        <v>1</v>
-      </c>
-      <c r="J107" s="10"/>
-    </row>
-    <row r="108" spans="5:10">
+      <c r="I107" s="25">
+        <v>1</v>
+      </c>
+      <c r="J107" s="25"/>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E108" s="1" t="s">
         <v>152</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="5:10">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E109" s="1" t="s">
         <v>151</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="5:10">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E110" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="5:10">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E111" s="1" t="s">
         <v>163</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="5:10">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E112" s="1" t="s">
         <v>164</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D114" s="1" t="s">
         <v>184</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D115" s="1" t="s">
         <v>156</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C116" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D117" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D118" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D121" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D122" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D126" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E127" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E128" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="2:13">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D130" s="1" t="s">
         <v>75</v>
       </c>
@@ -4130,62 +4193,62 @@
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="2:13">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E131" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="2:13">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E132" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="2:13">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="2:13">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="2:13">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="2:13">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C136" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="2:13">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="2:13">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C139" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="140" spans="2:13">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D140" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="2:13">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E141" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="2:13">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F142" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="143" spans="2:13">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F143" s="1" t="s">
         <v>106</v>
       </c>
@@ -4193,12 +4256,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="2:13">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F144" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="4:15">
+    <row r="145" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D145" s="1" t="s">
         <v>104</v>
       </c>
@@ -4206,12 +4269,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="146" spans="4:15">
+    <row r="146" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E146" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="4:15">
+    <row r="147" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F147" s="1" t="s">
         <v>102</v>
       </c>
@@ -4219,7 +4282,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="148" spans="4:15">
+    <row r="148" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F148" s="1" t="s">
         <v>101</v>
       </c>
@@ -4227,12 +4290,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="4:15">
+    <row r="149" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E149" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="4:15">
+    <row r="150" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F150" s="1" t="s">
         <v>99</v>
       </c>
@@ -4243,17 +4306,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="151" spans="4:15">
+    <row r="151" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F151" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="152" spans="4:15">
+    <row r="152" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E152" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="4:15">
+    <row r="153" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F153" s="1" t="s">
         <v>84</v>
       </c>
@@ -4261,12 +4324,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="4:15">
+    <row r="154" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E154" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="4:15">
+    <row r="155" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F155" s="1" t="s">
         <v>93</v>
       </c>
@@ -4274,7 +4337,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="4:15">
+    <row r="156" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F156" s="1" t="s">
         <v>94</v>
       </c>
@@ -4282,7 +4345,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="4:15">
+    <row r="157" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D157" s="1" t="s">
         <v>96</v>
       </c>
@@ -4290,51 +4353,69 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="4:15">
+    <row r="158" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E158" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="4:15">
+    <row r="159" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E159" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="160" spans="4:15">
+    <row r="160" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E160" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C161" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D162" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D163" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C164" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I63:J64"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I90:J91"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
     <mergeCell ref="I92:J92"/>
     <mergeCell ref="I93:J93"/>
     <mergeCell ref="I94:J94"/>
@@ -4351,37 +4432,19 @@
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I90:J91"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I42:J43"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I63:J64"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4389,330 +4452,330 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="Z5" s="16"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Z6" s="16"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Z6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Z8" s="16"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Z9" s="16"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Z10" s="16"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Z11" s="16"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="Z12" s="16"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z12" s="10"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Z13" s="16"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="Z13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Z14" s="16"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="Z14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Z15" s="18"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Z16" s="18"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Z17" s="16"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="Z18" s="16"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z18" s="10"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E25" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F27" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G28" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G29" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F30" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F32" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F33" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F34" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F35" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D39" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E42" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E43" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D44" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E45" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E46" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E51" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E59" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F61" s="2"/>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20" t="s">
+      <c r="H61" s="31"/>
+      <c r="I61" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20" t="s">
+      <c r="J61" s="31"/>
+      <c r="K61" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="L61" s="20"/>
-    </row>
-    <row r="62" spans="2:12">
+      <c r="L61" s="31"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F62" s="2" t="s">
         <v>247</v>
       </c>
@@ -4735,374 +4798,374 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F63" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="13">
         <v>1</v>
       </c>
       <c r="H63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64" s="13">
         <v>0.2</v>
       </c>
       <c r="H64" s="1">
         <v>1.5</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="13">
         <v>0.8</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="5:12">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F65" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="13">
         <v>0.2</v>
       </c>
       <c r="H65" s="1">
         <v>1.5</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I65" s="13">
         <v>0.8</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="5:12">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F66" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66" s="13">
         <v>0.2</v>
       </c>
       <c r="H66" s="1">
         <v>1.5</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="13">
         <v>0.2</v>
       </c>
       <c r="J66" s="1">
         <v>0.75</v>
       </c>
-      <c r="K66" s="19">
+      <c r="K66" s="13">
         <v>0.6</v>
       </c>
       <c r="L66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="5:12">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F67" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G67" s="13">
         <v>0.2</v>
       </c>
       <c r="H67" s="1">
         <v>1.5</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I67" s="13">
         <v>0.2</v>
       </c>
       <c r="J67" s="1">
         <v>0.75</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K67" s="13">
         <v>0.6</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="5:12">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F68" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G68" s="13">
         <v>0.2</v>
       </c>
       <c r="H68" s="1">
         <v>1.5</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I68" s="13">
         <v>0.2</v>
       </c>
       <c r="J68" s="1">
         <v>0.75</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K68" s="13">
         <v>0.6</v>
       </c>
       <c r="L68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="5:12">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="5:12">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F70" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="5:12">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F71" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="5:12">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F72" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="5:12">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.2">
       <c r="G73" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="5:12">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.2">
       <c r="G74" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="5:12">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.2">
       <c r="G75" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="5:12">
-      <c r="H76" s="27" t="s">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H76" s="20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="77" spans="5:12">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.2">
       <c r="G77" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="5:12">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F78" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="5:12">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.2">
       <c r="G79" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="5:12">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.2">
       <c r="G80" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G81" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E85" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E86" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E87" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D91" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E92" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E93" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D95" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E96" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="4:6">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E97" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="4:6">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D99" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="4:6">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D100" s="2"/>
       <c r="E100" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="101" spans="4:6">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D101" s="2"/>
       <c r="F101" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="4:6">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D102" s="2"/>
       <c r="E102" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="4:6">
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D103" s="2"/>
       <c r="F103" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="4:6">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="4:6">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D105" s="2"/>
       <c r="E105" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="4:6">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D106" s="2"/>
       <c r="E106" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="4:6">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D107" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="4:6">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E108" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="4:6">
+    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E109" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="4:6">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F110" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="4:6">
+    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E111" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="4:6">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F112" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="113" spans="3:6">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E113" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="114" spans="3:6">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F114" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="3:6">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F115" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="3:6">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F116" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="117" spans="3:6">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D117" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="3:6">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D118" s="2"/>
       <c r="E118" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="3:6">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D119" s="2"/>
       <c r="E119" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="3:6">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D120" s="2"/>
       <c r="E120" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="121" spans="3:6">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="26:26">
-      <c r="Z134" s="16"/>
+    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z134" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5116,532 +5179,532 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="Z1" s="16"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="I3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="I8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="I13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="I18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="I19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="F20" s="11"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -5649,9 +5712,9 @@
       <c r="C24" s="1">
         <v>30</v>
       </c>
-      <c r="Z24" s="16"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="Z24" s="10"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>199</v>
@@ -5659,9 +5722,9 @@
       <c r="C25" s="1">
         <v>40</v>
       </c>
-      <c r="Z25" s="16"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="Z25" s="10"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>200</v>
@@ -5669,9 +5732,9 @@
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="Z26" s="16"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="Z26" s="10"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>202</v>
@@ -5679,87 +5742,87 @@
       <c r="C27" s="1">
         <v>10</v>
       </c>
-      <c r="Z27" s="16"/>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="Z27" s="10"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20" t="s">
+      <c r="G45" s="31"/>
+      <c r="H45" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20" t="s">
+      <c r="I45" s="31"/>
+      <c r="J45" s="31" t="s">
         <v>246</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -5769,7 +5832,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>247</v>
@@ -5792,234 +5855,234 @@
       <c r="I46" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="22" t="s">
+      <c r="J46" s="31"/>
+      <c r="K46" s="15" t="s">
         <v>331</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="C47" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="13">
         <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="J47" s="1">
-        <f>D47*E47+F47*G47+H47*I47</f>
-        <v>1</v>
-      </c>
-      <c r="K47" s="22"/>
+        <f t="shared" ref="J47:J52" si="0">D47*E47+F47*G47+H47*I47</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="15"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="C48" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="13">
         <v>0.2</v>
       </c>
       <c r="E48" s="1">
         <v>1.5</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="13">
         <v>0.8</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="21">
-        <f>D48*E48+F48*G48+H48*I48</f>
+      <c r="J48" s="14">
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="16">
         <f>SUM($J$48:$J$52)/J48</f>
         <v>4.8636363636363633</v>
       </c>
       <c r="L48" s="1">
         <v>0.8</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="17">
         <f>K48*L48/SUM($K$48:$K$52)</f>
         <v>0.15555555555555556</v>
       </c>
-      <c r="N48" s="25"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="N48" s="18"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="C49" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="13">
         <v>0.2</v>
       </c>
       <c r="E49" s="1">
         <v>1.5</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="13">
         <v>0.8</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="J49" s="21">
-        <f>D49*E49+F49*G49+H49*I49</f>
+      <c r="J49" s="14">
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="16">
         <f>SUM($J$48:$J$52)/J49</f>
         <v>4.8636363636363633</v>
       </c>
       <c r="L49" s="1">
         <v>0.6</v>
       </c>
-      <c r="M49" s="24">
+      <c r="M49" s="17">
         <f>K49*L49/SUM($K$48:$K$52)</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="N49" s="25"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="N49" s="18"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="C50" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="13">
         <v>0.2</v>
       </c>
       <c r="E50" s="1">
         <v>1.5</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="13">
         <v>0.2</v>
       </c>
       <c r="G50" s="1">
         <v>0.75</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="13">
         <v>0.6</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
-      <c r="J50" s="21">
-        <f>D50*E50+F50*G50+H50*I50</f>
+      <c r="J50" s="14">
+        <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="16">
         <f>SUM($J$48:$J$52)/J50</f>
         <v>5.0952380952380949</v>
       </c>
       <c r="L50" s="1">
         <v>1</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="17">
         <f>K50*L50/SUM($K$48:$K$52)</f>
         <v>0.20370370370370369</v>
       </c>
-      <c r="N50" s="25"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="N50" s="18"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="C51" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="13">
         <v>0.2</v>
       </c>
       <c r="E51" s="1">
         <v>1.5</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="13">
         <v>0.2</v>
       </c>
       <c r="G51" s="1">
         <v>0.75</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="13">
         <v>0.6</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
       </c>
-      <c r="J51" s="21">
-        <f>D51*E51+F51*G51+H51*I51</f>
+      <c r="J51" s="14">
+        <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="16">
         <f>SUM($J$48:$J$52)/J51</f>
         <v>5.0952380952380949</v>
       </c>
       <c r="L51" s="1">
         <v>1</v>
       </c>
-      <c r="M51" s="24">
+      <c r="M51" s="17">
         <f>K51*L51/SUM($K$48:$K$52)</f>
         <v>0.20370370370370369</v>
       </c>
-      <c r="N51" s="25"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="N51" s="18"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="C52" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="13">
         <v>0.2</v>
       </c>
       <c r="E52" s="1">
         <v>1.5</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="13">
         <v>0.2</v>
       </c>
       <c r="G52" s="1">
         <v>0.75</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="13">
         <v>0.6</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="J52" s="21">
-        <f>D52*E52+F52*G52+H52*I52</f>
+      <c r="J52" s="14">
+        <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="16">
         <f>SUM($J$48:$J$52)/J52</f>
         <v>5.0952380952380949</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="17">
         <f>K52*L52/SUM($K$48:$K$52)</f>
         <v>0.20370370370370369</v>
       </c>
-      <c r="N52" s="25"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="N52" s="18"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="N53" s="26"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="N53" s="19"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="C55" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="D56" s="1" t="s">
         <v>338</v>
@@ -6029,7 +6092,7 @@
         <v>0.20370370370370369</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="D57" s="1" t="s">
         <v>339</v>
@@ -6039,7 +6102,7 @@
         <v>0.20370370370370369</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="D58" s="1" t="s">
         <v>340</v>
@@ -6049,7 +6112,7 @@
         <v>0.20370370370370369</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="D59" s="1" t="s">
         <v>341</v>
@@ -6059,7 +6122,7 @@
         <v>0.15555555555555556</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="D60" s="1" t="s">
         <v>342</v>
@@ -6069,131 +6132,131 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20" t="s">
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20" t="s">
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20" t="s">
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="P80" s="20"/>
-    </row>
-    <row r="81" spans="2:16" s="29" customFormat="1" ht="30">
-      <c r="B81" s="30" t="s">
+      <c r="P80" s="31"/>
+    </row>
+    <row r="81" spans="2:16" s="22" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B81" s="23" t="s">
         <v>358</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="G81" s="30" t="s">
+      <c r="G81" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="H81" s="30" t="s">
+      <c r="H81" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="I81" s="30" t="s">
+      <c r="I81" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="J81" s="30" t="s">
+      <c r="J81" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="K81" s="30" t="s">
+      <c r="K81" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="L81" s="31" t="s">
+      <c r="L81" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="30" t="s">
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="P81" s="30" t="s">
+      <c r="P81" s="23" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="82" spans="2:16" ht="49.5">
+    <row r="82" spans="2:16" ht="51" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>359</v>
       </c>
@@ -6212,13 +6275,13 @@
       <c r="G82" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H82" s="29" t="s">
+      <c r="H82" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I82" s="28" t="s">
+      <c r="I82" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="J82" s="29" t="s">
+      <c r="J82" s="22" t="s">
         <v>378</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -6229,42 +6292,42 @@
       </c>
       <c r="M82" s="33"/>
       <c r="N82" s="33"/>
-      <c r="O82" s="29" t="s">
+      <c r="O82" s="22" t="s">
         <v>357</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="83" spans="2:16" s="29" customFormat="1" ht="33">
-      <c r="B83" s="29" t="s">
+    <row r="83" spans="2:16" s="22" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B83" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="H83" s="29" t="s">
+      <c r="H83" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="I83" s="29" t="s">
+      <c r="I83" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="J83" s="29" t="s">
+      <c r="J83" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="K83" s="29" t="s">
+      <c r="K83" s="22" t="s">
         <v>356</v>
       </c>
       <c r="L83" s="33" t="s">
@@ -6272,42 +6335,42 @@
       </c>
       <c r="M83" s="33"/>
       <c r="N83" s="33"/>
-      <c r="O83" s="29" t="s">
+      <c r="O83" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="P83" s="29" t="s">
+      <c r="P83" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="84" spans="2:16" s="29" customFormat="1" ht="33">
-      <c r="B84" s="29" t="s">
+    <row r="84" spans="2:16" s="22" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B84" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F84" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="I84" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="J84" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="K84" s="29" t="s">
+      <c r="K84" s="22" t="s">
         <v>357</v>
       </c>
       <c r="L84" s="32" t="s">
@@ -6315,42 +6378,42 @@
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
-      <c r="O84" s="29" t="s">
+      <c r="O84" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="P84" s="29" t="s">
+      <c r="P84" s="22" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="85" spans="2:16" s="29" customFormat="1" ht="33">
-      <c r="B85" s="29" t="s">
+    <row r="85" spans="2:16" s="22" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B85" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="H85" s="29" t="s">
+      <c r="H85" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="I85" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="J85" s="29" t="s">
+      <c r="J85" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="K85" s="29" t="s">
+      <c r="K85" s="22" t="s">
         <v>356</v>
       </c>
       <c r="L85" s="32" t="s">
@@ -6358,42 +6421,42 @@
       </c>
       <c r="M85" s="32"/>
       <c r="N85" s="32"/>
-      <c r="O85" s="29" t="s">
+      <c r="O85" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="P85" s="29" t="s">
+      <c r="P85" s="22" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="86" spans="2:16" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B86" s="29" t="s">
+    <row r="86" spans="2:16" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="F86" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="G86" s="29" t="s">
+      <c r="G86" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="H86" s="29" t="s">
+      <c r="H86" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I86" s="29" t="s">
+      <c r="I86" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="J86" s="29" t="s">
+      <c r="J86" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="K86" s="29" t="s">
+      <c r="K86" s="22" t="s">
         <v>357</v>
       </c>
       <c r="L86" s="33" t="s">
@@ -6401,15 +6464,21 @@
       </c>
       <c r="M86" s="33"/>
       <c r="N86" s="33"/>
-      <c r="O86" s="29" t="s">
+      <c r="O86" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="P86" s="29" t="s">
+      <c r="P86" s="22" t="s">
         <v>379</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:J80"/>
     <mergeCell ref="L84:N84"/>
     <mergeCell ref="L85:N85"/>
     <mergeCell ref="L86:N86"/>
@@ -6418,12 +6487,6 @@
     <mergeCell ref="L81:N81"/>
     <mergeCell ref="L82:N82"/>
     <mergeCell ref="L83:N83"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="G80:J80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6432,355 +6495,355 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F24" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F25" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F26" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
-      <c r="D27" s="34" t="s">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D27" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="D28" s="34"/>
-      <c r="E28" s="34" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="D29" s="34"/>
-      <c r="E29" s="34" t="s">
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="D30" s="34" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D30" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="D31" s="34"/>
-      <c r="E31" s="34" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34" t="s">
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-    </row>
-    <row r="33" spans="2:25">
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-    </row>
-    <row r="34" spans="2:25">
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34" t="s">
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-    </row>
-    <row r="35" spans="2:25">
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-    </row>
-    <row r="36" spans="2:25">
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-    </row>
-    <row r="37" spans="2:25">
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-    </row>
-    <row r="38" spans="2:25">
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-    </row>
-    <row r="39" spans="2:25">
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-    </row>
-    <row r="40" spans="2:25">
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-    </row>
-    <row r="41" spans="2:25">
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-    </row>
-    <row r="42" spans="2:25">
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-    </row>
-    <row r="43" spans="2:25">
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-    </row>
-    <row r="44" spans="2:25">
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-    </row>
-    <row r="45" spans="2:25">
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="2:25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="2:25">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="2:25">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
         <v>413</v>
       </c>
